--- a/packages/app/public/templates/zuschuesse.xlsx
+++ b/packages/app/public/templates/zuschuesse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\app\packages\app\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D1BDB7-638D-4677-9FE3-25CFD4E9A96C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EE4063-5848-4BCE-8B86-66AA0D18B58E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teilnehmerliste" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Teilnehmerliste!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Vorname</t>
   </si>
@@ -173,7 +169,43 @@
     <t>Juleica-Nr.</t>
   </si>
   <si>
-    <t>Freizeitname</t>
+    <t>${table:anmeldungen.anmeldeID}</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.person.nachname}</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.person.vorname}</t>
+  </si>
+  <si>
+    <t>Anmelde-ID</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.adresse.strasse}</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.adresse.plz}</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.adresse.ort}</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.telefon.telefon}</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.person.gebDat.german}</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.m}</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.w}</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.betreuer}</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.empty}</t>
   </si>
   <si>
     <r>
@@ -193,56 +225,32 @@
         <rFont val="Calibri Deluxe"/>
         <family val="2"/>
       </rPr>
-      <t>Freizeitleiter</t>
+      <t>????</t>
     </r>
   </si>
   <si>
-    <t>Straße und Hausnummer</t>
-  </si>
-  <si>
-    <t>PLZ und Ort (Land)</t>
-  </si>
-  <si>
-    <t>Telefon und Mail</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.anmeldeID}</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.person.nachname}</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.person.vorname}</t>
-  </si>
-  <si>
-    <t>Anmelde-ID</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.adresse.strasse}</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.adresse.plz}</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.adresse.ort}</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.telefon.telefon}</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.person.gebDat.german}</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.m}</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.w}</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.betreuer}</t>
-  </si>
-  <si>
-    <t>${table:anmeldungen.empty}</t>
+    <t>${bezeichnung}</t>
+  </si>
+  <si>
+    <t>${begin.german}</t>
+  </si>
+  <si>
+    <t>${ende.german}</t>
+  </si>
+  <si>
+    <t>${veranstaltungsort.bezeichnung}</t>
+  </si>
+  <si>
+    <t>${vOrtLocation}</t>
+  </si>
+  <si>
+    <t>${veranstaltungsort.strasse}</t>
+  </si>
+  <si>
+    <t>????? (Email + Telefon)</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.older27}</t>
   </si>
 </sst>
 </file>
@@ -864,7 +872,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="80">
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -887,7 +895,7 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="169" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -944,12 +952,10 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="169" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -985,15 +991,11 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1023,7 +1025,7 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1052,7 +1054,7 @@
     <xf numFmtId="168" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="169" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1064,7 +1066,7 @@
     <xf numFmtId="168" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1092,42 +1094,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1199,56 +1166,6 @@
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>84913</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1288983</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>124904</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8724901" y="84913"/>
-          <a:ext cx="2146232" cy="734237"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1581,10 +1498,10 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="14.25"/>
@@ -1604,52 +1521,52 @@
   <sheetData>
     <row r="1" spans="1:14" ht="27.75" customHeight="1">
       <c r="D1" s="2"/>
-      <c r="E1" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
+      <c r="E1" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
     </row>
     <row r="2" spans="1:14" ht="27" customHeight="1">
-      <c r="D2" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
+      <c r="D2" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1">
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5">
-        <v>43288</v>
-      </c>
-      <c r="G3" s="6">
-        <v>43298</v>
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
     </row>
     <row r="4" spans="1:14" ht="7.15" customHeight="1" thickBot="1">
       <c r="D4" s="2"/>
@@ -1660,155 +1577,155 @@
         <v>27</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M5" s="12"/>
       <c r="N5" s="13"/>
     </row>
     <row r="6" spans="1:14" s="26" customFormat="1" ht="45.75" thickBot="1">
       <c r="A6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A7" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A7" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="47" t="s">
+      <c r="J7" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="K7" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="N7" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="54" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="51" customFormat="1" ht="15" thickBot="1">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
+    </row>
+    <row r="8" spans="1:14" s="49" customFormat="1" ht="15" thickBot="1">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1">
       <c r="B9" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="30"/>
     </row>
     <row r="10" spans="1:14" ht="15">
-      <c r="B10" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="64"/>
+      <c r="B10" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
       <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15">
+      <c r="B11" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="60"/>
+      <c r="D11" s="61"/>
+      <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15">
-      <c r="B11" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64"/>
-      <c r="F11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B12" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="64"/>
+      <c r="B12" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="61"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B13" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="82"/>
+      <c r="B13" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="78"/>
+      <c r="D13" s="79"/>
       <c r="F13" s="31"/>
       <c r="G13" s="32"/>
       <c r="H13" s="33"/>
@@ -1821,124 +1738,101 @@
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1">
       <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="38"/>
+      <c r="N14" s="36"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="B15" s="39" t="s">
-        <v>15</v>
+      <c r="B15" s="37" t="s">
+        <v>14</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="34"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="38"/>
+      <c r="N15" s="36"/>
     </row>
     <row r="16" spans="1:14">
       <c r="B16" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="38"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="67"/>
+        <v>20</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="64"/>
     </row>
     <row r="17" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="70"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="67"/>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="38"/>
+      <c r="D18" s="36"/>
     </row>
     <row r="19" spans="2:14" ht="15" thickBot="1">
       <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="38"/>
+      <c r="D19" s="36"/>
     </row>
     <row r="20" spans="2:14" ht="14.45" customHeight="1">
       <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="38"/>
+      <c r="D20" s="36"/>
       <c r="F20" s="31"/>
       <c r="G20" s="32"/>
       <c r="H20" s="33"/>
       <c r="I20" s="32"/>
       <c r="J20" s="32"/>
-      <c r="K20" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="L20" s="71"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="75"/>
+      <c r="K20" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="68"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="72"/>
     </row>
     <row r="21" spans="2:14" ht="14.45" customHeight="1">
       <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="38"/>
+      <c r="D21" s="36"/>
       <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="77"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="74"/>
     </row>
     <row r="22" spans="2:14" ht="15" thickBot="1">
-      <c r="B22" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="61"/>
-      <c r="F22" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22" s="73"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="79"/>
+      <c r="B22" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
+      <c r="F22" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="70"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="76"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:AL7">

--- a/packages/app/public/templates/zuschuesse.xlsx
+++ b/packages/app/public/templates/zuschuesse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\app\packages\app\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EE4063-5848-4BCE-8B86-66AA0D18B58E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AF2971-D163-40AA-8D7C-57EF0EB7B301}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,16 +169,10 @@
     <t>Juleica-Nr.</t>
   </si>
   <si>
-    <t>${table:anmeldungen.anmeldeID}</t>
-  </si>
-  <si>
     <t>${table:anmeldungen.person.nachname}</t>
   </si>
   <si>
     <t>${table:anmeldungen.person.vorname}</t>
-  </si>
-  <si>
-    <t>Anmelde-ID</t>
   </si>
   <si>
     <t>${table:anmeldungen.adresse.strasse}</t>
@@ -251,6 +245,12 @@
   </si>
   <si>
     <t>${table:anmeldungen.older27}</t>
+  </si>
+  <si>
+    <t>Fortl.-ID</t>
+  </si>
+  <si>
+    <t>${table:anmeldungen.id}</t>
   </si>
 </sst>
 </file>
@@ -872,7 +872,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -998,9 +998,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1501,7 +1498,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="14.25"/>
@@ -1521,52 +1518,52 @@
   <sheetData>
     <row r="1" spans="1:14" ht="27.75" customHeight="1">
       <c r="D1" s="2"/>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
     </row>
     <row r="2" spans="1:14" ht="27" customHeight="1">
-      <c r="D2" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
+      <c r="D2" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1">
       <c r="D3" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
     </row>
     <row r="4" spans="1:14" ht="7.15" customHeight="1" thickBot="1">
       <c r="D4" s="2"/>
@@ -1584,7 +1581,7 @@
     </row>
     <row r="6" spans="1:14" s="26" customFormat="1" ht="45.75" thickBot="1">
       <c r="A6" s="14" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>24</v>
@@ -1627,47 +1624,47 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="C7" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="D7" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="E7" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="G7" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="H7" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="I7" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="J7" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="K7" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="42" t="s">
+      <c r="N7" s="51" t="s">
         <v>37</v>
-      </c>
-      <c r="K7" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="51" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="49" customFormat="1" ht="15" thickBot="1">
@@ -1694,38 +1691,38 @@
       <c r="D9" s="30"/>
     </row>
     <row r="10" spans="1:14" ht="15">
-      <c r="B10" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
+      <c r="B10" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
       <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15">
-      <c r="B11" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
+      <c r="B11" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1">
+      <c r="B13" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B13" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="78"/>
-      <c r="D13" s="79"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="78"/>
       <c r="F13" s="31"/>
       <c r="G13" s="32"/>
       <c r="H13" s="33"/>
@@ -1754,15 +1751,15 @@
         <v>20</v>
       </c>
       <c r="D16" s="36"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="64"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="63"/>
     </row>
     <row r="17" spans="2:14" ht="15.75" thickBot="1">
       <c r="B17" s="38"/>
@@ -1770,17 +1767,17 @@
       <c r="D17" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="65" t="s">
+      <c r="F17" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="67"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="66"/>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="35"/>
@@ -1798,41 +1795,41 @@
       <c r="H20" s="33"/>
       <c r="I20" s="32"/>
       <c r="J20" s="32"/>
-      <c r="K20" s="68" t="s">
+      <c r="K20" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="68"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="72"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="71"/>
     </row>
     <row r="21" spans="2:14" ht="14.45" customHeight="1">
       <c r="B21" s="35"/>
       <c r="D21" s="36"/>
       <c r="F21" s="35"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="74"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="73"/>
     </row>
     <row r="22" spans="2:14" ht="15" thickBot="1">
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="58"/>
-      <c r="F22" s="56" t="s">
+      <c r="C22" s="56"/>
+      <c r="D22" s="57"/>
+      <c r="F22" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="70" t="s">
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="70"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="76"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="75"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:AL7">

--- a/packages/app/public/templates/zuschuesse.xlsx
+++ b/packages/app/public/templates/zuschuesse.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\app\packages\app\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\ec\ec-verwaltungs-app\packages\app\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AF2971-D163-40AA-8D7C-57EF0EB7B301}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D4DDE6-E622-4337-934D-993DE19EEC1A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,27 +202,6 @@
     <t>${table:anmeldungen.empty}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Deluxe"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Leiter: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Deluxe"/>
-        <family val="2"/>
-      </rPr>
-      <t>????</t>
-    </r>
-  </si>
-  <si>
     <t>${bezeichnung}</t>
   </si>
   <si>
@@ -251,6 +230,9 @@
   </si>
   <si>
     <t>${table:anmeldungen.id}</t>
+  </si>
+  <si>
+    <t>Leiter:  ${hauptleiter.person.vorname} ${hauptleiter.person.nachname}</t>
   </si>
 </sst>
 </file>
@@ -878,10 +860,6 @@
     <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1084,6 +1062,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="169" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1498,7 +1480,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="14.25"/>
@@ -1509,7 +1491,7 @@
     <col min="5" max="5" width="6.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="8" customWidth="1"/>
     <col min="9" max="10" width="3.28515625" style="1" customWidth="1"/>
     <col min="11" max="13" width="6.28515625" style="1" customWidth="1"/>
     <col min="14" max="14" width="24" style="1" customWidth="1"/>
@@ -1518,318 +1500,318 @@
   <sheetData>
     <row r="1" spans="1:14" ht="27.75" customHeight="1">
       <c r="D1" s="2"/>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
     </row>
     <row r="2" spans="1:14" ht="27" customHeight="1">
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1">
+      <c r="D3" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1">
-      <c r="D3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
     </row>
     <row r="4" spans="1:14" ht="7.15" customHeight="1" thickBot="1">
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="17.25" thickBot="1">
       <c r="D5" s="2"/>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <v>27</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="13"/>
-    </row>
-    <row r="6" spans="1:14" s="26" customFormat="1" ht="45.75" thickBot="1">
-      <c r="A6" s="14" t="s">
+      <c r="M5" s="11"/>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" s="25" customFormat="1" ht="45.75" thickBot="1">
+      <c r="A6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A7" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A7" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="42" t="s">
+      <c r="J7" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="50" t="s">
+      <c r="K7" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="42" t="s">
+      <c r="M7" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="51" t="s">
+      <c r="N7" s="50" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="49" customFormat="1" ht="15" thickBot="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
+    <row r="8" spans="1:14" s="48" customFormat="1" ht="15" thickBot="1">
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
     </row>
     <row r="10" spans="1:14" ht="15">
-      <c r="B10" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
+      <c r="B10" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
       <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15">
-      <c r="B11" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
+      <c r="B11" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B12" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
+      <c r="B12" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B13" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="78"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="34"/>
+      <c r="B13" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="33"/>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1">
-      <c r="F14" s="35"/>
-      <c r="N14" s="36"/>
+      <c r="F14" s="34"/>
+      <c r="N14" s="35"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="34"/>
-      <c r="F15" s="35"/>
-      <c r="N15" s="36"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="N15" s="35"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="63"/>
+      <c r="D16" s="35"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="62"/>
     </row>
     <row r="17" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="36" t="s">
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="64" t="s">
+      <c r="F17" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="66"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="65"/>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="35"/>
-      <c r="D18" s="36"/>
+      <c r="B18" s="34"/>
+      <c r="D18" s="35"/>
     </row>
     <row r="19" spans="2:14" ht="15" thickBot="1">
-      <c r="B19" s="35"/>
-      <c r="D19" s="36"/>
+      <c r="B19" s="34"/>
+      <c r="D19" s="35"/>
     </row>
     <row r="20" spans="2:14" ht="14.45" customHeight="1">
-      <c r="B20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="67" t="s">
+      <c r="B20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="67"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="71"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="70"/>
     </row>
     <row r="21" spans="2:14" ht="14.45" customHeight="1">
-      <c r="B21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="F21" s="35"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="73"/>
+      <c r="B21" s="34"/>
+      <c r="D21" s="35"/>
+      <c r="F21" s="34"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="72"/>
     </row>
     <row r="22" spans="2:14" ht="15" thickBot="1">
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="57"/>
-      <c r="F22" s="55" t="s">
+      <c r="C22" s="55"/>
+      <c r="D22" s="56"/>
+      <c r="F22" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="69" t="s">
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="69"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="75"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="74"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:AL7">

--- a/packages/app/public/templates/zuschuesse.xlsx
+++ b/packages/app/public/templates/zuschuesse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\ec\ec-verwaltungs-app\packages\app\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D4DDE6-E622-4337-934D-993DE19EEC1A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32FF409-675F-4B6B-8DEB-365811859B95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -977,6 +977,10 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1062,10 +1066,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="169" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1480,7 +1480,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="14.25"/>
@@ -1500,34 +1500,34 @@
   <sheetData>
     <row r="1" spans="1:14" ht="27.75" customHeight="1">
       <c r="D1" s="2"/>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
     </row>
     <row r="2" spans="1:14" ht="27" customHeight="1">
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1">
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="51" t="s">
         <v>48</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1542,10 +1542,10 @@
       <c r="H3" s="6"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
     </row>
     <row r="4" spans="1:14" ht="7.15" customHeight="1" thickBot="1">
       <c r="D4" s="2"/>
@@ -1673,38 +1673,38 @@
       <c r="D9" s="29"/>
     </row>
     <row r="10" spans="1:14" ht="15">
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
       <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15">
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="78"/>
       <c r="F13" s="30"/>
       <c r="G13" s="31"/>
       <c r="H13" s="32"/>
@@ -1733,15 +1733,15 @@
         <v>20</v>
       </c>
       <c r="D16" s="35"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="62"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="63"/>
     </row>
     <row r="17" spans="2:14" ht="15.75" thickBot="1">
       <c r="B17" s="37"/>
@@ -1749,17 +1749,17 @@
       <c r="D17" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="63" t="s">
+      <c r="F17" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="66"/>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="34"/>
@@ -1777,41 +1777,41 @@
       <c r="H20" s="32"/>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
-      <c r="K20" s="66" t="s">
+      <c r="K20" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="66"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="70"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="71"/>
     </row>
     <row r="21" spans="2:14" ht="14.45" customHeight="1">
       <c r="B21" s="34"/>
       <c r="D21" s="35"/>
       <c r="F21" s="34"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="72"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="73"/>
     </row>
     <row r="22" spans="2:14" ht="15" thickBot="1">
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56"/>
-      <c r="F22" s="54" t="s">
+      <c r="C22" s="56"/>
+      <c r="D22" s="57"/>
+      <c r="F22" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="68" t="s">
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="68"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="74"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="75"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:AL7">
